--- a/Testdata/TC_28.xlsx
+++ b/Testdata/TC_28.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3W07ns1ElV75lqyFHUe2Qyb7gsrdlbhIu9t0VSfx2yKBFi2LEEKzaLmKp0VIDCPYlZYZLv9lNckMT/wFTl36Zjs77jCKJl3nVqdOnTrnqwp692buGVckZDTw90vVilUyiO8ELvUv9ksRPy9XH5XetVH3xiHeMQ7xnHAQNkDLZ3s3jO6XZpwv9kzz+vq6cl2vBOGFWbOsqvlk0B87MzLHZeozjn2HlBIt9+1aJRu13fmAcOxijpXmfqk37lXahDodoA2wjy9IWGlFjPqEsa7PKaeECc2QYE7ancF31MLsWuVRpYrMNXoq2Yqo5yq5nKSiazmYlkzonNg1q7pbtnbLdWtSre01dvYau5VGrfZ+rJgIoj5mfEzCK+pIwpjj+UKqW7t1q1pr7DR2kblRCGylAbDR0HNH5Ioy4raJ57FCETH1BjYdDqsuFkwLmRldbejhLhyGeDGbUO6RYm6MBi1j7mtfUiM2OghC4kD8HuTSEbkehjqsk0UfuJMZDfmyg5eFbZ0wEg4XIkjFVG3UCXze9EjITxaw18SFVACGzcOIIPMeZqrUocyBb+pHxLXPsceySjkmOg3CS7bADjmCc2wKG9e+F2AXEo5TxqmTTrrGQMdhsACLMHkr8NwDsKqFNzASyz0fQiymbQXBZerdJiaSuyr3F/Z0jnksvkZH41lwPfS95TiaMiekU+J2WrH0Rh4SB1JrtyPGgzl4kZKQomUoS/gHB3CVjDrEoXPsHXsQRGbXwUqOgJoRD84pbwdeNPdZ7NMKFZ3CiibkJllhMkZD2FxfBD3we/6KlY28vMYouI63cJ0ug5AhN5mT7Mg6Z1W6AzSdHOsMuSNilQfUg/6Q3YsMNZ8V4xkhfGNKKA4SpfBAdBy7tTyK5lM4XlM4Y1dyVobMlI8gTyHXwS/bgi5Slj8Ty9qTP+BHwkZd371fLmYimC4zl10F3goJwZq8lof9S6CeUj47asZr2cBBKgL3yq/zEJzchYeXkpxEKUtDPd/xIpeogtDzz2WKCt/UNt3LRmukPpxxG2F/OVkuoC4zusfhY78EnXqP8RCwQMl2gsjn4VJUDmRq0bfpsGjqywmwt7XOeUi+HwEEWR5EvtMO3O1nc1V0TnzKt/cwiEJVDrdXkdETlTFiHSJqjCz6W+s7RdbEwkLic5/MA58620cbgiy8dx+wEBafqq01iDpfW8t70NdV2xNnfWu1EPAjNLpC0zQZCxwqk1UfDzejb95zZDrkHEceYDcOLfYiqdSrZNRkl6syWRI6Cb24AtoCGTOAxo47rzgAHgT8qzjBXBBMQKSnY2Rm5QUCckjXv+hj/yICjJHUlVV6Un9Ff5yE2GdiOQmkWCnFm4VQXKcU1LFV8RpGMhFU8QqAi8wVOTQh80UQYm8AgaEHOu00XgIoMsB8pkfQ2jzixEE2U9VEK+9Z7PjbxGSTUssQB16XyRWiFBJrUSA8lUlpSKxyAMfSa2OPTkNVVeNWvokHG5aCw7j+isUVBIrxHsBFDLrvt8lSoPN0oOkyZasxQyWwKKT2eLSzW2tY9RogGzFGcsUjgj2jC4eZE6PnXxHG56C2Z4wIoy58UeztGe+RKaHQBGWIdBsqrJ3VQwdxnZeuNMHfPCUvAHjjgkIbWRdMOKmCfUZw6C0zgmqp/cABubsf//v2N89fvfjs7qOnb7744X//8atX//zZ7bMfwcfdX/92+/Ev1TKVMJrgqUekQ5PW7q5V34E8S0hIBNeU0NiNHC5pZ2cSESdjpC92ctDu9tqH/ZasJwkxVlctxRR3xmUQpcOxWoScSG6pGWeCErEncX3S4xw306JscYe7InnpLP8+RRWL1y8/e/3yz/dq64ClWKv6+HGjXK29FYrBbbi6JpdAsX6uBwjhnbLVKNdqGeEVGTRSDSCJU8+161XrsVWDK3dSy90kkTcJrbK0pQm+MFf0FKmt4FGSAtlxzJSJP4EjkrDVUcgMdIp+8ZM3f3mak9LR1ZS8FXBOwhgxmRkPpOmj0cQYD09G7a4x6Y5FnqS8jJwy/jXCevbkPOWSyvcj7H3LgOYOzcwowY2oZATnBsHOzFjCScycw1yybaKqiR5octXLwzCIFmpHMgopdYNkUk02amyoNZIn47lWdFLWBnHl6+3fP9+koBfSSQFt8v6RpaEcR5EyfH1qP/3Xqy8/fPXixd3zn99++YOcBT1P8iwAeQ6nKTtM0h5Knu43KxR0OpbBvLS+m+kvmiguUscB9Tmzq4/kHUqPEKhWhTX5G/Xm0PKkYRkvoK9Q0HuYdW+4Ptj2ETLzBPBzgaHbBundMyGoGp7G9T+//d3drz+/++T5mw//dPvRH28//uT1y9+/efYHderunj6/++kzXeVXG4H0RdxoFQg05PuIY4jTaIjebXz1wS8MP+AGQA4jkhXpqw8+zRgTjkpwkloGSJc4kndhTTSrLPSMjCuJDzm9REUBgLZoYfVEQjexYEGddJL3y8KUOHeS8Y3epBwxYgSApr4JK8kLp8rb6mkV1VKP37Fq1ZrmKm/EEqaYZUJ/6AVTABkxQz5ArIjktL5eIZWV8x32h61mPxVRTgxDl4QiDdUHiiGlaCk9Fo/iVMtQgAvAz4k88Wa0JrbOSixnypip317Om64of5ufKnISqB2FoQJEvn7LH0cLAMPxE939fPlsmcG/RwqrZhFxOu518nwYZ7jQCPNsQZB8WZo0S5WpHhPvPArOHonQpEPg5Z46IRz6uV4hrSvAlaEp6k43DINwY/FJObHYAJA0VBQzjXgiI/dUoW433auYEBe85EPd/PQKgw7xCC/2lm2m2oPg6sG6sPdFVXts6Lk6mMWuHklYUgPZB32RKP/ve75KtmYYArASD4CFH+Dji+sI7rsFvVFLkYriBgiz6xfyAxoy/kRUAv2lKGcJ5Uwh1Cd2vaFw6BNFOBM3MPWhF6mtmzk346PL1Z9VAq9P57TgtdCKz3feCMRysVAQrlcsU0RrOSI3ADAzFqAoTr8HbUO9oxSxphIWammiL94uGb2Y8aKOvTPFxCVTq+xMSa2841q75ceE1MvVKvyPnVrNshri5VMbh8pByXXBScx4w9I/d9r/A9zKtOknHQAA</t>
+          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqDmoG60xeEkmQh0QqWjll6A505Q6Gs4w0z2S+OYANhw4DoIgWAfOiTw5CJDNIrEBZzfHfzFW2s1T/kKqj7lIyqtRFgJ2uq6urq6u+rqJ3rmZBMYViRmNwp2avWLVDBJ6kU/D851awsd1e732jou6Nx4JjnCMJ4SDsAFaIdu+YXSndsH5dNs0r6+vV64bK1F8bjqWZZtP9vsD74JMcJ2GjOPQI7VMy3+7Vs1FbX+yTzj2McdKc6fWG/RW2oR6HaDt4xCfk3illTAaEsa6IaecEiY0Y4I5aXf2v6cW5jor6ys2MhfouWQroYGv5EqSiq7lYFoypBPiOpZj1a3NurM6tO3t1bXthrOyub71XqqYCaI+ZnxA4ivqScKA48lUqlubzqptr641HGQuFQJbeQBcdBj4x+SKMuK3SRCwShEx9QY2PQ6rrhZMC5kFXW3o8S7sxXh6MaQ8IFXVd6OYeBCoR819QK4PYx2/4bQP3OEFjfmsg2eVbZ0wEh9ORTSqqbqoE4W8GZCYn0xhU4kPew4Ml8cJQeY9zFypQ5kH3zRMiO+OccCKSiUmOo3iSzbFHjmAA2sKG9dhEGEfMotTxqmXT7rAQEdxNAWLMHkrCvxdsKqFlzAyy70QQiymbUXRZe7dMiaSOSCzAfZ0gnkqvkBHg4vo+jAMZoNkxLyYjojfaaXSS3lInDyt3U4YjybgRU5CilagzOAfnLR5MuoQj05wcBRAEJnbACslAmomPBpT3o6CZBKy1Kc5KjqFFQ3JTbbCbIwOYXNDEfQo7IVzVpbyyhrH0XW6hYt0GYQCucm8bEcWOfPSHaDp5FhkyB0Rq9ylATSC4l4UqOWsGFwQwpemhOIgUfN2RWtxW7ODZDKC4zWCM3YlZ2XIzPkI8hRyHfxyLWgXdfk3tKxt+Qd+ZGzUDf375VImgukKc7k28OZICNYUtAIcXgL1lPKLg2a6liUcpCJwr/wiD8HJnQZ4JslZlIo01Au9IPGJKgi9cCxTVPimtuleNlog9eGMuwiHs+FsCgWY0W0OHzs1aMnbjMfQ9GuuFyUhj2eiciBTi75NhyWjUE6AgwfrjGPywwSwxmw3Cb125D98Nl9F5ySk/OEeRkmsyuHDVWT0RGVMWIeIGiOL/oP1vSprYnEl8UlIJlFIvYdHG4IsvPcfsRCWnqoHaxB1vh4sH0BfV21PnPUHq8UAFKHRVZqmyVjkUZms+nj4BX3zniPTIWOcBADSOLTY86xSz5NRk13OyxRJ6CQO0groCgjMAAN7/mTFA/AgcN6KF00EwQToeTpAZlFeICCPdMPzPg7PE8AYWV2Zp2f1V/THYYxDJpaTQYq5UrxcCKV1SkEdVxWvw0QmgipeEXCROSeHhmQyjWIc7ENg6K5OO42XAIrsY36hR9DaAuKlQTZz1Uyr7Fnq+NvEZJNSyxAHXpfJOaIUEmtRaDuXyWlIrHIfjmXQxgEdxaqqpq18GQ82LAeHaf0Vi6sIFNM9gBsXdN/vkpmA4flA02XK2ilDJbAopO7geHXTWbPE1UKOkVzxMcGB0YXDzInRC68I4xNQ2zaOCaM+fFEcbBvvkhGh0ARliHQbqqxd1EO7aZ2XrjTB3zKlLAB445xCG1kUzDi5gntGcBzMCoJqqf3IA7m7H//79jfPX734/O7jp2++/OC///jVq3/+7PbZh/Bx99e/3X7yS7VMJYyGeBQQ6dCwtblpNVYhzzISEsE1JTT2E49L2tmZRMTZGOkbnBy0u732Xr8l60lGTNVVSzHF5XAWJflwoBYhJ5JbaqaZoETcYVqf9LjELbQoV1zWrkhZusi/T1HF4vXLz1+//PO92jpgOdayt7bW6rbzVijmWLa9IJdBsX6pBwjh1bq1VnecgvCcDDpWDSCLU893G7a1ZTkNy85quZ8l8jKheZa2NMTn5pyeIrUVPMpSoDhOmTLxh3BEMrY6CoWBTtEvf/LmL09LUjq6mlK2As5JGCMmM9OBNH1wPDQGhyfH7a4x7A5EnuS8gpwy/g3CevbsPJWSKgwTHHzHgOYOzcyowY2oZkRjg2DvwpjBSSycw1KyLaOqiR5pct7LvThKpmpHCgo5dYlkVk2WaiypNZIn47lQdHLWEnHl6+3fv1imoBfSyQGte7zfMiZhlpeShkocRSrw9an97F+vvvro1YsXd89/fvvVj0oW9DzZswDkOZym4jBLeyh5ut/MUdDpQAbz0vp+ob9oorhIHUU05My11+UdSo8QqNrCmvwf9SbQ8qRhGS+gz1HQu5h1b7g+2O4BMssE8HOKodtG+d0zI6gansf1P7/93d2vv7j79Pmbj/50+/Efbz/59PXL37959gd16u6ePr/76TNd5ecbgfRF3GgVCDTk+4hniNNoiN5tfP3+L4ww4gZADiORFenr9z8rGBOOSnCSWwZIlzlSdmFBtKgs9IyCK5kPJb1MRQGAtmhhjUxCN7FoSr18kvfqwpQ4d5Lxrd6wnjBiRICmvg0rKQvnyg/V0yqqpR5tWI7taK7yRixhhFkh9HtBNAKQkTLkA8ScSEnrmxVyWTnfXv+w1eznIsqJw9gnsUhD9YF6LAWVaXoVKMAFsOclgXgnWhBbZKH0q1C6TP3eMm76ouQtf54oSaB2EscKBIX6oX6QTAEAp89y9/PlU2UB8x4ofFpEwfm41ynzYVzgQvMrswVB8mU50ixVmnpMvO0oCHsgQpMPgVd63oRw6Ld4ha6uAEvGpqg13TiO4qUFJ+ekYvuAnqGKmHnEMxlTTKmQtp/vVUpIi1z2oW57eoVRhwSEV36oTrX3o6tH68LeV1XtscPA18Gsdt3IwpIbKL7Wi0Sp6kwzjgE2iee9ys/rfRpe9qqt3vUaeHPNttb91Y31rY0N3Nh0NsjqluPYZGO0uQbAURoVt09hQtxcxN2t2iQAFsvq+T37GG7eFa2pAEtFcReFSMkDqQt7Nka7NGb8iShR+ktRzjLKmYLOT9zGmgLITxThTDisPvRPOHoys+R1Wl+4+mEnCvp0QiveV620CJWNQBpMpwpbVt1Q6HkH5AaQb8ECVOvRD6CfqQeeKtbUqYIin+mntgbJqLI5M1U+Ar5IrMdpd33AZY/Xlj+T0OD/cEAir8ea6IWMnl/wqvvqbG01yDpx6s7Y8+qrMKhDNx7VfTzesi1r3PDXHPGirY1Dd6DkuuIkoqdQBveK6nrm3O/c7v8AxSy7nyAfAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
         <v>1.15358987359135</v>
       </c>
       <c r="U2" s="2">
-        <v>0.2499825759175085</v>
+        <v>0.2499825759175076</v>
       </c>
       <c r="V2" s="2">
         <v>0.9524844521373417</v>
@@ -691,4 +691,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>36</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A53B863B-BEB8-4A32-BB08-3CDC905AABF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_28.xlsx
+++ b/Testdata/TC_28.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>IB8AAB+LCAAAAAAAAAOlWVlvI8cR/isDPiVAqDmoG60xeEkmQh0QqWjll6A505Q6Gs4w0z2S+OYANhw4DoIgWAfOiTw5CJDNIrEBZzfHfzFW2s1T/kKqj7lIyqtRFgJ2uq6urq6u+rqJ3rmZBMYViRmNwp2avWLVDBJ6kU/D851awsd1e732jou6Nx4JjnCMJ4SDsAFaIdu+YXSndsH5dNs0r6+vV64bK1F8bjqWZZtP9vsD74JMcJ2GjOPQI7VMy3+7Vs1FbX+yTzj2McdKc6fWG/RW2oR6HaDt4xCfk3illTAaEsa6IaecEiY0Y4I5aXf2v6cW5jor6ys2MhfouWQroYGv5EqSiq7lYFoypBPiOpZj1a3NurM6tO3t1bXthrOyub71XqqYCaI+ZnxA4ivqScKA48lUqlubzqptr641HGQuFQJbeQBcdBj4x+SKMuK3SRCwShEx9QY2PQ6rrhZMC5kFXW3o8S7sxXh6MaQ8IFXVd6OYeBCoR819QK4PYx2/4bQP3OEFjfmsg2eVbZ0wEh9ORTSqqbqoE4W8GZCYn0xhU4kPew4Ml8cJQeY9zFypQ5kH3zRMiO+OccCKSiUmOo3iSzbFHjmAA2sKG9dhEGEfMotTxqmXT7rAQEdxNAWLMHkrCvxdsKqFlzAyy70QQiymbUXRZe7dMiaSOSCzAfZ0gnkqvkBHg4vo+jAMZoNkxLyYjojfaaXSS3lInDyt3U4YjybgRU5CilagzOAfnLR5MuoQj05wcBRAEJnbACslAmomPBpT3o6CZBKy1Kc5KjqFFQ3JTbbCbIwOYXNDEfQo7IVzVpbyyhrH0XW6hYt0GYQCucm8bEcWOfPSHaDp5FhkyB0Rq9ylATSC4l4UqOWsGFwQwpemhOIgUfN2RWtxW7ODZDKC4zWCM3YlZ2XIzPkI8hRyHfxyLWgXdfk3tKxt+Qd+ZGzUDf375VImgukKc7k28OZICNYUtAIcXgL1lPKLg2a6liUcpCJwr/wiD8HJnQZ4JslZlIo01Au9IPGJKgi9cCxTVPimtuleNlog9eGMuwiHs+FsCgWY0W0OHzs1aMnbjMfQ9GuuFyUhj2eiciBTi75NhyWjUE6AgwfrjGPywwSwxmw3Cb125D98Nl9F5ySk/OEeRkmsyuHDVWT0RGVMWIeIGiOL/oP1vSprYnEl8UlIJlFIvYdHG4IsvPcfsRCWnqoHaxB1vh4sH0BfV21PnPUHq8UAFKHRVZqmyVjkUZms+nj4BX3zniPTIWOcBADSOLTY86xSz5NRk13OyxRJ6CQO0groCgjMAAN7/mTFA/AgcN6KF00EwQToeTpAZlFeICCPdMPzPg7PE8AYWV2Zp2f1V/THYYxDJpaTQYq5UrxcCKV1SkEdVxWvw0QmgipeEXCROSeHhmQyjWIc7ENg6K5OO42XAIrsY36hR9DaAuKlQTZz1Uyr7Fnq+NvEZJNSyxAHXpfJOaIUEmtRaDuXyWlIrHIfjmXQxgEdxaqqpq18GQ82LAeHaf0Vi6sIFNM9gBsXdN/vkpmA4flA02XK2ilDJbAopO7geHXTWbPE1UKOkVzxMcGB0YXDzInRC68I4xNQ2zaOCaM+fFEcbBvvkhGh0ARliHQbqqxd1EO7aZ2XrjTB3zKlLAB445xCG1kUzDi5gntGcBzMCoJqqf3IA7m7H//79jfPX734/O7jp2++/OC///jVq3/+7PbZh/Bx99e/3X7yS7VMJYyGeBQQ6dCwtblpNVYhzzISEsE1JTT2E49L2tmZRMTZGOkbnBy0u732Xr8l60lGTNVVSzHF5XAWJflwoBYhJ5JbaqaZoETcYVqf9LjELbQoV1zWrkhZusi/T1HF4vXLz1+//PO92jpgOdayt7bW6rbzVijmWLa9IJdBsX6pBwjh1bq1VnecgvCcDDpWDSCLU893G7a1ZTkNy85quZ8l8jKheZa2NMTn5pyeIrUVPMpSoDhOmTLxh3BEMrY6CoWBTtEvf/LmL09LUjq6mlK2As5JGCMmM9OBNH1wPDQGhyfH7a4x7A5EnuS8gpwy/g3CevbsPJWSKgwTHHzHgOYOzcyowY2oZkRjg2DvwpjBSSycw1KyLaOqiR5pct7LvThKpmpHCgo5dYlkVk2WaiypNZIn47lQdHLWEnHl6+3fv1imoBfSyQGte7zfMiZhlpeShkocRSrw9an97F+vvvro1YsXd89/fvvVj0oW9DzZswDkOZym4jBLeyh5ut/MUdDpQAbz0vp+ob9oorhIHUU05My11+UdSo8QqNrCmvwf9SbQ8qRhGS+gz1HQu5h1b7g+2O4BMssE8HOKodtG+d0zI6gansf1P7/93d2vv7j79Pmbj/50+/Efbz/59PXL37959gd16u6ePr/76TNd5ecbgfRF3GgVCDTk+4hniNNoiN5tfP3+L4ww4gZADiORFenr9z8rGBOOSnCSWwZIlzlSdmFBtKgs9IyCK5kPJb1MRQGAtmhhjUxCN7FoSr18kvfqwpQ4d5Lxrd6wnjBiRICmvg0rKQvnyg/V0yqqpR5tWI7taK7yRixhhFkh9HtBNAKQkTLkA8ScSEnrmxVyWTnfXv+w1eznIsqJw9gnsUhD9YF6LAWVaXoVKMAFsOclgXgnWhBbZKH0q1C6TP3eMm76ouQtf54oSaB2EscKBIX6oX6QTAEAp89y9/PlU2UB8x4ofFpEwfm41ynzYVzgQvMrswVB8mU50ixVmnpMvO0oCHsgQpMPgVd63oRw6Ld4ha6uAEvGpqg13TiO4qUFJ+ekYvuAnqGKmHnEMxlTTKmQtp/vVUpIi1z2oW57eoVRhwSEV36oTrX3o6tH68LeV1XtscPA18Gsdt3IwpIbKL7Wi0Sp6kwzjgE2iee9ys/rfRpe9qqt3vUaeHPNttb91Y31rY0N3Nh0NsjqluPYZGO0uQbAURoVt09hQtxcxN2t2iQAFsvq+T37GG7eFa2pAEtFcReFSMkDqQt7Nka7NGb8iShR+ktRzjLKmYLOT9zGmgLITxThTDisPvRPOHoys+R1Wl+4+mEnCvp0QiveV620CJWNQBpMpwpbVt1Q6HkH5AaQb8ECVOvRD6CfqQeeKtbUqYIin+mntgbJqLI5M1U+Ar5IrMdpd33AZY/Xlj+T0OD/cEAir8ea6IWMnl/wqvvqbG01yDpx6s7Y8+qrMKhDNx7VfTzesi1r3PDXHPGirY1Dd6DkuuIkoqdQBveK6nrm3O/c7v8AxSy7nyAfAAA=</t>
+          <t>Jx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3W07ns1ElV75lqyFHUe2Qyb7gsrdlbhIu9t0VSfx2yKBFi2LEEKzaLmKp0VIDCPYlZYZLv9lNckMT/wFTl36Zjs77jCKJl3nVqdOnTrnqwp692buGVckZDTw90vVilUyiO8ELvUv9ksRPy9XH5XetVH3xiHeMQ7xnHAQNkDLZ3s3jO6XZpwv9kzz+vq6cl2vBOGFWbOsqvlk0B87MzLHZeozjn2HlBIt9+1aJRu13fmAcOxijpXmfqk37lXahDodoA2wjy9IWGlFjPqEsa7PKaeECc2QYE7ancF31MLsWuVRpYrMNXoq2Yqo5yq5nKSiazmYlkzonNg1q7pbtnbLdWtSre01dvYau5VGrfZ+rJgIoj5mfEzCK+pIwpjj+UKqW7t1q1pr7DR2kblRCGylAbDR0HNH5Ioy4raJ57FCETH1BjYdDqsuFkwLmRldbejhLhyGeDGbUO6RYm6MBi1j7mtfUiM2OghC4kD8HuTSEbkehjqsk0UfuJMZDfmyg5eFbZ0wEg4XIkjFVG3UCXze9EjITxaw18SFVACGzcOIIPMeZqrUocyBb+pHxLXPsceySjkmOg3CS7bADjmCc2wKG9e+F2AXEo5TxqmTTrrGQMdhsACLMHkr8NwDsKqFNzASyz0fQiymbQXBZerdJiaSuyr3F/Z0jnksvkZH41lwPfS95TiaMiekU+J2WrH0Rh4SB1JrtyPGgzl4kZKQomUoS/gHB3CVjDrEoXPsHXsQRGbXwUqOgJoRD84pbwdeNPdZ7NMKFZ3CiibkJllhMkZD2FxfBD3we/6KlY28vMYouI63cJ0ug5AhN5mT7Mg6Z1W6AzSdHOsMuSNilQfUg/6Q3YsMNZ8V4xkhfGNKKA4SpfBAdBy7tTyK5lM4XlM4Y1dyVobMlI8gTyHXwS/bgi5Slj8Ty9qTP+BHwkZd371fLmYimC4zl10F3goJwZq8lof9S6CeUj47asZr2cBBKgL3yq/zEJzchYeXkpxEKUtDPd/xIpeogtDzz2WKCt/UNt3LRmukPpxxG2F/OVkuoC4zusfhY78EnXqP8RCwQMl2gsjn4VJUDmRq0bfpsGjqywmwt7XOeUi+HwEEWR5EvtMO3O1nc1V0TnzKt/cwiEJVDrdXkdETlTFiHSJqjCz6W+s7RdbEwkLic5/MA58620cbgiy8dx+wEBafqq01iDpfW8t70NdV2xNnfWu1EPAjNLpC0zQZCxwqk1UfDzejb95zZDrkHEceYDcOLfYiqdSrZNRkl6syWRI6Cb24AtoCGTOAxo47rzgAHgT8qzjBXBBMQKSnY2Rm5QUCckjXv+hj/yICjJHUlVV6Un9Ff5yE2GdiOQmkWCnFm4VQXKcU1LFV8RpGMhFU8QqAi8wVOTQh80UQYm8AgaEHOu00XgIoMsB8pkfQ2jzixEE2U9VEK+9Z7PjbxGSTUssQB16XyRWiFBJrUSA8lUlpSKxyAMfSa2OPTkNVVeNWvokHG5aCw7j+isUVBIrxHsBFDLrvt8lSoPN0oOkyZasxQyWwKKT2eLSzW2tY9RogGzFGcsUjgj2jC4eZE6PnXxHG56C2Z4wIoy58UeztGe+RKaHQBGWIdBsqrJ3VQwdxnZeuNMHfPCUvAHjjgkIbWRdMOKmCfUZw6C0zgmqp/cABubsf//v2N89fvfjs7qOnb7744X//8atX//zZ7bMfwcfdX/92+/Ev1TKVMJrgqUekQ5PW7q5V34E8S0hIBNeU0NiNHC5pZ2cSESdjpC92ctDu9tqH/ZasJwkxVlctxRR3xmUQpcOxWoScSG6pGWeCErEncX3S4xw306JscYe7InnpLP8+RRWL1y8/e/3yz/dq64ClWKv6+HGjXK29FYrBbbi6JpdAsX6uBwjhnbLVKNdqGeEVGTRSDSCJU8+161XrsVWDK3dSy90kkTcJrbK0pQm+MFf0FKmt4FGSAtlxzJSJP4EjkrDVUcgMdIp+8ZM3f3mak9LR1ZS8FXBOwhgxmRkPpOmj0cQYD09G7a4x6Y5FnqS8jJwy/jXCevbkPOWSyvcj7H3LgOYOzcwowY2oZATnBsHOzFjCScycw1yybaKqiR5octXLwzCIFmpHMgopdYNkUk02amyoNZIn47lWdFLWBnHl6+3fP9+koBfSSQFt8v6RpaEcR5EyfH1qP/3Xqy8/fPXixd3zn99++YOcBT1P8iwAeQ6nKTtM0h5Knu43KxR0OpbBvLS+m+kvmiguUscB9Tmzq4/kHUqPEKhWhTX5G/Xm0PKkYRkvoK9Q0HuYdW+4Ptj2ETLzBPBzgaHbBundMyGoGp7G9T+//d3drz+/++T5mw//dPvRH28//uT1y9+/efYHderunj6/++kzXeVXG4H0RdxoFQg05PuIY4jTaIjebXz1wS8MP+AGQA4jkhXpqw8+zRgTjkpwkloGSJc4kndhTTSrLPSMjCuJDzm9REUBgLZoYfVEQjexYEGddJL3y8KUOHeS8Y3epBwxYgSApr4JK8kLp8rb6mkV1VKP37Fq1ZrmKm/EEqaYZUJ/6AVTABkxQz5ArIjktL5eIZWV8x32h61mPxVRTgxDl4QiDdUHiiGlaCk9Fo/iVMtQgAvAz4k88Wa0JrbOSixnypip317Om64of5ufKnISqB2FoQJEvn7LH0cLAMPxE939fPlsmcG/RwqrZhFxOu518nwYZ7jQCPNsQZB8WZo0S5WpHhPvPArOHonQpEPg5Z46IRz6uV4hrSvAlaEp6k43DINwY/FJObHYAJA0VBQzjXgiI/dUoW433auYEBe85EPd/PQKgw7xCC/2lm2m2oPg6sG6sPdFVXts6Lk6mMWuHklYUgPZB32RKP/ve75KtmYYArASD4CFH+Dji+sI7rsFvVFLkYriBgiz6xfyAxoy/kRUAv2lKGcJ5Uwh1Cd2vaFw6BNFOBM3MPWhF6mtmzk346PL1Z9VAq9P57TgtdCKz3feCMRysVAQrlcsU0RrOSI3ADAzFqAoTr8HbUO9oxSxphIWammiL94uGb2Y8aKOvTPFxCVTq+xMSa2841q75ceE1MvVKvyPnVrNshri5VMbh8pByXXBScx4w9I/d9r/A9zKtOknHQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
         <v>1.15358987359135</v>
       </c>
       <c r="U2" s="2">
-        <v>0.2499825759175076</v>
+        <v>0.2499825759175085</v>
       </c>
       <c r="V2" s="2">
         <v>0.9524844521373417</v>
@@ -691,37 +691,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>36</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A53B863B-BEB8-4A32-BB08-3CDC905AABF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>